--- a/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
+++ b/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\snu\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\@pro.ject\@@Git\snu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A7A63-B006-4C5E-AB32-EF0C16F0A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36139DB6-D297-4826-BC0D-9B3280F234E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,9 +321,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,41 +369,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,405 +709,391 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE787AF-27B8-4204-BE6E-996C175DB7D0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>7171</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>5005</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
@@ -1119,13 +1108,28 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{E1027206-1C1C-457A-A77B-8E84D2CD0842}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{0BABBE45-E09E-4579-B81F-2C9FC03FF542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
+++ b/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\snu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A7A63-B006-4C5E-AB32-EF0C16F0A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787073A7-2902-4698-9E2E-B5A7E934FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,42 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE787AF-27B8-4204-BE6E-996C175DB7D0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,48 +718,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -768,122 +768,122 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -892,194 +892,194 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>7171</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>5005</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1088,23 +1088,9 @@
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
@@ -1119,13 +1105,28 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{E1027206-1C1C-457A-A77B-8E84D2CD0842}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{14B412A9-3B8C-41E5-83F1-B409B45ADAFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
+++ b/docs/서울대 중앙도서관_CMS_API정리문서_20250225.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\snu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787073A7-2902-4698-9E2E-B5A7E934FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A7A63-B006-4C5E-AB32-EF0C16F0A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,53 +321,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE787AF-27B8-4204-BE6E-996C175DB7D0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,48 +718,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -768,122 +768,122 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -892,194 +892,194 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>7171</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>5005</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1088,9 +1088,23 @@
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
@@ -1105,28 +1119,13 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{E1027206-1C1C-457A-A77B-8E84D2CD0842}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{14B412A9-3B8C-41E5-83F1-B409B45ADAFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
